--- a/accounting_books.xlsx
+++ b/accounting_books.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DE69EF-AF0C-4200-BDDD-0AF8E5D7EA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB037BA-F864-4A52-9C5C-105F60CE6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分类帐" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
@@ -57,9 +57,6 @@
     <t>贷记 (-)</t>
   </si>
   <si>
-    <t>CONTOSO, LTD</t>
-  </si>
-  <si>
     <t>余额</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
   </si>
   <si>
     <t>转账给周文沁，聘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账给罗心怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账给王鸿诤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USTC_BIO, LTD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,6 +208,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -237,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -297,6 +315,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="7">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -315,32 +339,6 @@
     <cellStyle name="图标" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thick">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -400,6 +398,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -554,14 +578,14 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="编号" dataDxfId="3" dataCellStyle="编号">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="编号" dataDxfId="7" dataCellStyle="编号">
       <calculatedColumnFormula>IF(MOD(ROW(),2)=0,"",$B5+1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="日期" dataCellStyle="日期"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="账目"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="借记 (+)" dataDxfId="2" dataCellStyle="借方贷方分隔符"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="贷记 (-)" dataDxfId="1" dataCellStyle="货币"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="余额" dataDxfId="0" dataCellStyle="货币">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="借记 (+)" dataDxfId="6" dataCellStyle="借方贷方分隔符"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="贷记 (-)" dataDxfId="5" dataCellStyle="货币"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="余额" dataDxfId="4" dataCellStyle="货币">
       <calculatedColumnFormula>IF(MOD(ROW(),2)=1,"",IF(AND($E6="",$F6="",$E7="",$F7=""),"",SUM($E6:$E7)-SUM($F6:$F7)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="负数余额（标志）" dataCellStyle="图标">
@@ -811,7 +835,7 @@
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -827,11 +851,11 @@
   <sheetData>
     <row r="1" spans="2:8" ht="41.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="G1" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -857,7 +881,7 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(E7:E36)-SUM(F7:F36)</f>
-        <v>925.76</v>
+        <v>401.76</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -880,10 +904,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -895,7 +919,7 @@
         <v>44671</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="17">
         <v>1787.76</v>
@@ -949,7 +973,7 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="10">
@@ -991,7 +1015,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10">
@@ -1011,7 +1035,9 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="16">
+        <v>44716</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="17"/>
       <c r="F13" s="10"/>
@@ -1029,17 +1055,21 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F14" s="10">
+        <v>300</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(MOD(ROW(),2)=1,"",IF(AND($E13="",$F13="",$E14="",$F14=""),"",SUM($E13:$E14)-SUM($F13:$F14)))</f>
+        <v>-300</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1047,12 +1077,13 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="16">
+        <v>44723</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(ROW(),2)=1,"",IF(AND($E14="",$F14="",$E15="",$F16=""),"",SUM($E14:$E15)-SUM($F14:$F16)))</f>
         <v/>
       </c>
       <c r="H15" s="9" t="str">
@@ -1066,17 +1097,18 @@
         <v/>
       </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10">
+        <v>224</v>
+      </c>
       <c r="G16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>IF(MOD(ROW(),2)=1,"",IF(AND($E15="",$F15="",$E15="",$F15=""),"",SUM($E14:$E15)-SUM($F14:$F15)))</f>
+        <v/>
+      </c>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="15">
@@ -1088,11 +1120,11 @@
       <c r="E17" s="17"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(MOD(ROW(),2)=1,"",IF(AND($E16="",#REF!="",$E17="",$F17=""),"",SUM($E16:$E17)-SUM($F16:$F17)))</f>
         <v/>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(MOD(ROW(),2)=1,"",IF(SUM(E16:F16)=SUM(E17:F17),0,1))</f>
         <v/>
       </c>
     </row>
@@ -1441,20 +1473,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" dxfId="7" priority="68">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>$G$3="未结平"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="expression" dxfId="6" priority="74">
+    <cfRule type="expression" dxfId="2" priority="74">
       <formula>$G$3="UNBALANCED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G36">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND((MOD(ROW(),2)=0),($H7&lt;&gt;1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="76">
+    <cfRule type="expression" dxfId="0" priority="76">
       <formula>AND((MOD(ROW(),2)=0),($H7=1))</formula>
     </cfRule>
   </conditionalFormatting>
